--- a/Bosak_webpage_wireframe_final_project.xlsx
+++ b/Bosak_webpage_wireframe_final_project.xlsx
@@ -695,9 +695,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W26"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="R10" sqref="R10"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -920,9 +918,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:W26"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="T13" sqref="T13"/>
-    </sheetView>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="7.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
